--- a/MyBank/Guru99.xlsx
+++ b/MyBank/Guru99.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8CFB531A-88B1-4B56-9141-7C816DE69A80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{056188EA-47C1-41BB-9747-403747E3E117}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12675" windowHeight="5895" xr2:uid="{9F69DF98-4C5E-4BCD-A5CD-3D8B0718175F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12285" windowHeight="5895" xr2:uid="{9F69DF98-4C5E-4BCD-A5CD-3D8B0718175F}"/>
   </bookViews>
   <sheets>
     <sheet name="inteBank" sheetId="1" r:id="rId1"/>
@@ -32,26 +32,32 @@
     <t>http://demo.guru99.com/v3/index.php</t>
   </si>
   <si>
-    <t>mngr503226</t>
-  </si>
-  <si>
-    <t>dUnAbuj</t>
-  </si>
-  <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>mngr527168</t>
+  </si>
+  <si>
+    <t>jUpaqen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,13 +80,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,13 +408,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -416,20 +425,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -437,5 +446,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>